--- a/boyiERPServer/src/main/resources/excelDemo/orderProductOrderImportDemo.xlsx
+++ b/boyiERPServer/src/main/resources/excelDemo/orderProductOrderImportDemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>订单号</t>
   </si>
@@ -44,16 +44,19 @@
   <si>
     <t>备注</t>
   </si>
+  <si>
+    <t>计划交货</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="24">
@@ -89,6 +92,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -98,38 +176,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -137,6 +183,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -145,82 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,31 +251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,109 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,11 +473,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,11 +536,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,21 +556,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,36 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,137 +590,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +755,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1118,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1134,7 +1140,7 @@
     <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:20">
+    <row r="1" ht="40" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,6 +1178,9 @@
       </c>
       <c r="T1" s="11" t="s">
         <v>8</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
